--- a/Excel reader/B2.xlsx
+++ b/Excel reader/B2.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181B058</t>
+          <t>181b058</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>181B061</t>
+          <t>181b061</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -482,7 +482,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181B047</t>
+          <t>181b047</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181B035</t>
+          <t>181b035</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -536,7 +536,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181B053</t>
+          <t>181b053</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181B056</t>
+          <t>181b056</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>181B048</t>
+          <t>181b048</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,7 +590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>181B050</t>
+          <t>181b050</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -608,7 +608,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>181B045</t>
+          <t>181b045</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -626,7 +626,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181B049</t>
+          <t>181b049</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -644,7 +644,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>181B038</t>
+          <t>181b038</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -662,7 +662,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>181B059</t>
+          <t>181b059</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -680,7 +680,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>181B064</t>
+          <t>181b064</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -698,7 +698,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>181B057</t>
+          <t>181b057</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -716,7 +716,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>181B033</t>
+          <t>181b033</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -734,7 +734,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>181B063</t>
+          <t>181b063</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -752,7 +752,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>181B052</t>
+          <t>181b052</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -770,7 +770,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>181B041</t>
+          <t>181b041</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -788,7 +788,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>181B034</t>
+          <t>181b034</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -806,7 +806,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>181B042</t>
+          <t>181b042</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -824,7 +824,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>181B046</t>
+          <t>181b046</t>
         </is>
       </c>
       <c r="B23" t="n">
